--- a/public/xmls/zzzz.xlsx
+++ b/public/xmls/zzzz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Himanshu\google_tutor\public\xmls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E048BEC-10EF-43BB-8462-93D30ADC65C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5560A-FD2C-4CDE-ABA7-D0A48876B8E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{ACB0D2B5-E680-4B37-811F-29F32ED46A4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="12" xr2:uid="{ACB0D2B5-E680-4B37-811F-29F32ED46A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="FIB" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="SHADING BOX " sheetId="11" r:id="rId10"/>
     <sheet name="BS" sheetId="12" r:id="rId11"/>
     <sheet name="LP" sheetId="13" r:id="rId12"/>
+    <sheet name="FIB-MCQ" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="205">
   <si>
     <t>Tutor ID</t>
   </si>
@@ -714,6 +715,33 @@
   </si>
   <si>
     <t>3/8</t>
+  </si>
+  <si>
+    <t>mcq/fib</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>C &gt; 5</t>
+  </si>
+  <si>
+    <t>C &lt; 10</t>
+  </si>
+  <si>
+    <t>Some description here.</t>
+  </si>
+  <si>
+    <t>MCQ Question</t>
+  </si>
+  <si>
+    <t>What is 8 X 7 ?</t>
+  </si>
+  <si>
+    <t>Answer Stem</t>
+  </si>
+  <si>
+    <t>What is 8 X 7 = &lt;FIB_1&gt;?</t>
   </si>
 </sst>
 </file>
@@ -796,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,8 +847,20 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -919,6 +959,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -926,7 +975,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,21 +1022,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1015,6 +1049,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1792,7 +1856,7 @@
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>163</v>
       </c>
@@ -1800,7 +1864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
@@ -1808,13 +1872,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -1824,15 +1888,15 @@
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
@@ -1989,17 +2053,17 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="23">
         <v>0</v>
       </c>
       <c r="C17" s="1"/>
@@ -2142,14 +2206,14 @@
       <c r="B33" s="9"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>65</v>
       </c>
@@ -2158,14 +2222,14 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>67</v>
       </c>
@@ -2181,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA0F4D-3F47-4C9A-BA74-69A969F468E2}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2363,46 +2427,46 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="25" t="s">
         <v>192</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="25" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>194</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="25" t="s">
         <v>195</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,7 +2526,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>65</v>
       </c>
@@ -2478,12 +2542,279 @@
       <c r="B34" s="9"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADCA9EE-B149-43E8-9939-91A6345B6250}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="36">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2671,7 +3002,7 @@
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="27" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2679,7 +3010,7 @@
       <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -2774,7 +3105,7 @@
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C8" t="s">
@@ -2799,7 +3130,7 @@
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -2869,15 +3200,15 @@
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
@@ -3328,7 +3659,7 @@
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3336,7 +3667,7 @@
       <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
@@ -3356,13 +3687,13 @@
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3493,7 +3824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
@@ -3509,19 +3840,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -3529,13 +3860,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -3585,7 +3916,7 @@
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3697,7 +4028,7 @@
       <c r="A14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="19">
         <v>220</v>
       </c>
       <c r="C14" t="s">
@@ -3708,7 +4039,7 @@
       <c r="A15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="20" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3716,7 +4047,7 @@
       <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="20" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3724,7 +4055,7 @@
       <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3732,7 +4063,7 @@
       <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3740,7 +4071,7 @@
       <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3748,7 +4079,7 @@
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3756,7 +4087,7 @@
       <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="20" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3764,7 +4095,7 @@
       <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="20" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3772,7 +4103,7 @@
       <c r="A23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3780,7 +4111,7 @@
       <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3788,7 +4119,7 @@
       <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3796,7 +4127,7 @@
       <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="20" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3804,7 +4135,7 @@
       <c r="A27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3812,7 +4143,7 @@
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3820,7 +4151,7 @@
       <c r="A29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3828,7 +4159,7 @@
       <c r="A30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="20" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3836,7 +4167,7 @@
       <c r="A31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="20" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3844,7 +4175,7 @@
       <c r="A32" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="20" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3852,7 +4183,7 @@
       <c r="A33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3860,7 +4191,7 @@
       <c r="A34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3868,7 +4199,7 @@
       <c r="A35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3876,7 +4207,7 @@
       <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3884,7 +4215,7 @@
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="20" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3892,7 +4223,7 @@
       <c r="A38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3900,7 +4231,7 @@
       <c r="A39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3908,7 +4239,7 @@
       <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="20" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3916,7 +4247,7 @@
       <c r="A41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3924,7 +4255,7 @@
       <c r="A42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3932,7 +4263,7 @@
       <c r="A43" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3940,7 +4271,7 @@
       <c r="A44" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="26"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
@@ -3975,7 +4306,7 @@
       <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B50" t="s">
@@ -3983,11 +4314,11 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B52" t="s">
@@ -3995,10 +4326,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="32"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B54" t="s">
@@ -4006,23 +4337,23 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="32"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="32"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+      <c r="A59" s="32"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
@@ -4100,7 +4431,7 @@
       <c r="A70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="29" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4108,7 +4439,7 @@
       <c r="A71" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="30"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
@@ -4126,13 +4457,13 @@
       <c r="A74" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="30"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
@@ -4278,7 +4609,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -4320,7 +4651,7 @@
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -4328,14 +4659,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -4514,19 +4845,19 @@
       </c>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>65</v>
       </c>
@@ -4534,13 +4865,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>67</v>
       </c>
@@ -4552,9 +4883,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4735,27 +5069,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9097DF4D-0B27-4A4E-8D17-49076FD86407}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD55B1D-8AF9-4FC5-A3CC-4CECFFB64665}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="28fc6066-4239-4eca-8df4-da3a861e3e40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="852225de-0ab5-48e6-b5ae-21fe3d080e55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4780,9 +5102,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD55B1D-8AF9-4FC5-A3CC-4CECFFB64665}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9097DF4D-0B27-4A4E-8D17-49076FD86407}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="28fc6066-4239-4eca-8df4-da3a861e3e40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="852225de-0ab5-48e6-b5ae-21fe3d080e55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/xmls/zzzz.xlsx
+++ b/public/xmls/zzzz.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Himanshu\google_tutor\public\xmls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5560A-FD2C-4CDE-ABA7-D0A48876B8E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D226827-7FEC-4502-B7BF-0CA1C4DB6063}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="12" xr2:uid="{ACB0D2B5-E680-4B37-811F-29F32ED46A4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{ACB0D2B5-E680-4B37-811F-29F32ED46A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="FIB" sheetId="1" r:id="rId1"/>
     <sheet name="ARRAY" sheetId="4" r:id="rId2"/>
     <sheet name="AWS" sheetId="6" r:id="rId3"/>
     <sheet name="MCQ" sheetId="2" r:id="rId4"/>
-    <sheet name="BOX" sheetId="3" r:id="rId5"/>
-    <sheet name="CLOCK" sheetId="7" r:id="rId6"/>
-    <sheet name="SLOT" sheetId="8" r:id="rId7"/>
-    <sheet name="TAPE" sheetId="9" r:id="rId8"/>
-    <sheet name="NUMBER LINE" sheetId="10" r:id="rId9"/>
-    <sheet name="SHADING BOX " sheetId="11" r:id="rId10"/>
-    <sheet name="BS" sheetId="12" r:id="rId11"/>
-    <sheet name="LP" sheetId="13" r:id="rId12"/>
-    <sheet name="FIB-MCQ" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
+    <sheet name="BOX" sheetId="3" r:id="rId6"/>
+    <sheet name="CLOCK" sheetId="7" r:id="rId7"/>
+    <sheet name="SLOT" sheetId="8" r:id="rId8"/>
+    <sheet name="TAPE" sheetId="9" r:id="rId9"/>
+    <sheet name="NUMBER LINE" sheetId="10" r:id="rId10"/>
+    <sheet name="SHADING BOX " sheetId="11" r:id="rId11"/>
+    <sheet name="BS" sheetId="12" r:id="rId12"/>
+    <sheet name="LP" sheetId="13" r:id="rId13"/>
+    <sheet name="FIB-MCQ" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="221">
   <si>
     <t>Tutor ID</t>
   </si>
@@ -742,6 +743,54 @@
   </si>
   <si>
     <t>What is 8 X 7 = &lt;FIB_1&gt;?</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>col4</t>
+  </si>
+  <si>
+    <t>T9-9-2_005</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>What polygon is this?</t>
+  </si>
+  <si>
+    <t>Draw a rectangle https://res.cloudinary.com/ansr/image/upload/v1554896672/Tutor/shp007.svg</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>rhombus</t>
+  </si>
+  <si>
+    <t>pentagon</t>
+  </si>
+  <si>
+    <t>How many right angles does it have?</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>How many pairs of sides have equal lengths in this polygon?</t>
+  </si>
+  <si>
+    <t>Math Homework (3.4 LS 3 Day 3)</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1D6fKv3KJ9rw3m_ziuE5WwT6thiKB9-fxbjZVkC97r9Y/edit</t>
+  </si>
+  <si>
+    <t> Determine the type of quadrilateral based on the given attributes.</t>
   </si>
 </sst>
 </file>
@@ -860,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -968,6 +1017,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -975,7 +1109,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1051,6 +1185,18 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1069,17 +1215,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1709,6 +1876,210 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0B01A-25A7-4F06-865C-BD580F584D3D}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7E5F46-FF52-4F6E-968B-93B7158BEC90}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -1888,13 +2259,13 @@
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
@@ -1910,7 +2281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9C970C-9677-4C27-86EF-5EB50DA7E259}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -2241,7 +2612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA0F4D-3F47-4C9A-BA74-69A969F468E2}">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -2554,11 +2925,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADCA9EE-B149-43E8-9939-91A6345B6250}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2583,7 +2954,7 @@
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>196</v>
       </c>
       <c r="C2" s="1"/>
@@ -2703,7 +3074,7 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="28" t="s">
         <v>201</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2712,32 +3083,32 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>204</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="30">
         <v>56</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="9">
@@ -2746,7 +3117,7 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="9">
@@ -2755,7 +3126,7 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="9">
@@ -2764,7 +3135,7 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="9">
@@ -2773,14 +3144,14 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -3002,7 +3373,7 @@
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3010,7 +3381,7 @@
       <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -3200,13 +3571,13 @@
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
@@ -3227,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC31AF2-D071-4BDD-88A0-F598346CA582}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3612,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -3251,8 +3622,11 @@
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3260,7 +3634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -3269,7 +3643,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3652,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3289,7 +3663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3311,7 +3685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3322,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -3333,7 +3707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -3342,7 +3716,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -3351,7 +3725,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -3360,7 +3734,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -3369,7 +3743,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -3378,7 +3752,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -3387,7 +3761,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3428,14 +3802,16 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2">
-        <v>683</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="B21" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3511,13 +3887,443 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{0636FB43-5502-41E3-B1FE-37CE5D2BC11A}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{F12B8D4C-0A84-4547-AC2D-73F9E5A48D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AEF32F-FECE-43E6-9362-CB985E75113A}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="41"/>
+    </row>
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="41"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="41"/>
+    </row>
+    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="41"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="41"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="41">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="41">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="41">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="41">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="41"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="41"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="41">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="41">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="41">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="41"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="41"/>
+    </row>
+    <row r="49" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="45"/>
+    </row>
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B50:B51"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B53" r:id="rId1" xr:uid="{1109E795-FCC9-4BEA-BB50-ECD16A61CDF2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BBCCAB-E8C5-43E1-A5F4-88278D277EED}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -3659,7 +4465,7 @@
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="31" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3667,7 +4473,7 @@
       <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
@@ -3687,13 +4493,13 @@
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3710,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32241A2E-002A-4170-A892-2E026EAC029E}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3878,7 +4684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C3D241-0F2D-4616-8B05-AEDE0D6C835D}">
   <dimension ref="A1:C78"/>
   <sheetViews>
@@ -4306,7 +5112,7 @@
       <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B50" t="s">
@@ -4314,11 +5120,11 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B52" t="s">
@@ -4326,10 +5132,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
+      <c r="A53" s="36"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B54" t="s">
@@ -4337,23 +5143,23 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="36"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
+      <c r="A57" s="36"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="36"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
@@ -4431,7 +5237,7 @@
       <c r="A70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="33" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4439,7 +5245,7 @@
       <c r="A71" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="34"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
@@ -4457,13 +5263,13 @@
       <c r="A74" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="29"/>
+      <c r="B74" s="33"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="30"/>
+      <c r="B75" s="34"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
@@ -4503,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691B2F58-1D22-447C-B44D-E3E4C98A49E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4678,220 +5484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0B01A-25A7-4F06-865C-BD580F584D3D}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0A176A1E4F27742B828D5477EFAA9A6" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa00d0a8e2e6a8e9f7c63bce79fa1dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28fc6066-4239-4eca-8df4-da3a861e3e40" xmlns:ns3="852225de-0ab5-48e6-b5ae-21fe3d080e55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31210c7b941b0434f8c5965231d0fe93" ns2:_="" ns3:_="">
     <xsd:import namespace="28fc6066-4239-4eca-8df4-da3a861e3e40"/>
@@ -5068,6 +5661,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5075,14 +5677,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD55B1D-8AF9-4FC5-A3CC-4CECFFB64665}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2018FBC-A414-4108-9429-2326AB03D6ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5097,6 +5691,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD55B1D-8AF9-4FC5-A3CC-4CECFFB64665}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/public/xmls/zzzz.xlsx
+++ b/public/xmls/zzzz.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Himanshu\google_tutor\public\xmls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D226827-7FEC-4502-B7BF-0CA1C4DB6063}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7010DF-DDA2-499D-BDEE-C1A66B462FFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{ACB0D2B5-E680-4B37-811F-29F32ED46A4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{ACB0D2B5-E680-4B37-811F-29F32ED46A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="FIB" sheetId="1" r:id="rId1"/>
     <sheet name="ARRAY" sheetId="4" r:id="rId2"/>
     <sheet name="AWS" sheetId="6" r:id="rId3"/>
     <sheet name="MCQ" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
+    <sheet name="SUB-MCQ" sheetId="15" r:id="rId5"/>
     <sheet name="BOX" sheetId="3" r:id="rId6"/>
     <sheet name="CLOCK" sheetId="7" r:id="rId7"/>
     <sheet name="SLOT" sheetId="8" r:id="rId8"/>
     <sheet name="TAPE" sheetId="9" r:id="rId9"/>
     <sheet name="NUMBER LINE" sheetId="10" r:id="rId10"/>
     <sheet name="SHADING BOX " sheetId="11" r:id="rId11"/>
-    <sheet name="BS" sheetId="12" r:id="rId12"/>
+    <sheet name="BG" sheetId="12" r:id="rId12"/>
     <sheet name="LP" sheetId="13" r:id="rId13"/>
     <sheet name="FIB-MCQ" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="225">
   <si>
     <t>Tutor ID</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t> Authored</t>
-  </si>
-  <si>
-    <t>box</t>
   </si>
   <si>
     <t>3.4.1</t>
@@ -583,9 +580,6 @@
     <t>Order</t>
   </si>
   <si>
-    <t>nbl</t>
-  </si>
-  <si>
     <t>Plot $A$:$B$ on the number line, and mark the nearest friendly time.</t>
   </si>
   <si>
@@ -610,24 +604,15 @@
     <t>Point_4</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
     <t>Mason had $A$ muffins. He gets $B$ more from David. Mason gives equal number of muffins to his $C$ cousins on his birthday. Shade the muffins to show how many each cousin received.</t>
   </si>
   <si>
     <t>2*4</t>
   </si>
   <si>
-    <t>Shading refrence</t>
-  </si>
-  <si>
     <t>$(A+B)/C$</t>
   </si>
   <si>
-    <t>bg</t>
-  </si>
-  <si>
     <t>An electronics shop sells 850 refrigerators in February, 750 refrigerators in March, 550 refrigerators in April, 950 refrigerators in May, and 650 refrigerators in June. Represent the information on a scaled bar graph.</t>
   </si>
   <si>
@@ -700,9 +685,6 @@
     <t>Y value 4</t>
   </si>
   <si>
-    <t>lp</t>
-  </si>
-  <si>
     <t>Robert has 12 Killifish in his aquarium. The table given below shows the length of each fish. Plot the length of each fish on the grid given below and draw and label a line plot.</t>
   </si>
   <si>
@@ -791,6 +773,36 @@
   </si>
   <si>
     <t> Determine the type of quadrilateral based on the given attributes.</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>boxing</t>
+  </si>
+  <si>
+    <t>(A*100)+(B*10)+C</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>numberline</t>
+  </si>
+  <si>
+    <t>shadingbox</t>
+  </si>
+  <si>
+    <t>Shading answer</t>
+  </si>
+  <si>
+    <t>bargraph</t>
+  </si>
+  <si>
+    <t>lineplot</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1121,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1197,21 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1233,20 +1230,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1565,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3D92D1-F931-484F-B153-1DE50251C283}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1743,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1752,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1770,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1779,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,18 +1790,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,67 +1809,70 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1895,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,12 +1915,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1960,24 +1975,24 @@
       </c>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1994,7 +2009,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -2002,7 +2017,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="9">
         <v>30</v>
@@ -2010,7 +2025,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="9">
         <v>10</v>
@@ -2018,7 +2033,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -2026,19 +2041,19 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="9"/>
     </row>
@@ -2083,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7E5F46-FF52-4F6E-968B-93B7158BEC90}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2109,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2196,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2207,15 +2222,15 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="9">
         <v>4</v>
@@ -2229,10 +2244,10 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2259,13 +2274,13 @@
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
@@ -2285,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9C970C-9677-4C27-86EF-5EB50DA7E259}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,12 +2322,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2384,152 +2399,152 @@
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B17" s="23">
         <v>0</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B18" s="9">
         <v>30</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B21" s="9">
         <v>30</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B22" s="9">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>1</v>
@@ -2538,7 +2553,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>11</v>
@@ -2547,7 +2562,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>12</v>
@@ -2556,7 +2571,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>32</v>
@@ -2565,12 +2580,12 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
@@ -2616,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA0F4D-3F47-4C9A-BA74-69A969F468E2}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,12 +2653,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2723,29 +2738,29 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -2754,7 +2769,7 @@
     </row>
     <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B16" s="9">
         <v>30</v>
@@ -2763,16 +2778,16 @@
     </row>
     <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -2781,7 +2796,7 @@
     </row>
     <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B19" s="9">
         <v>30</v>
@@ -2790,7 +2805,7 @@
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B20" s="9">
         <v>10</v>
@@ -2799,50 +2814,50 @@
     </row>
     <row r="21" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B26" s="9">
         <v>4</v>
@@ -2851,7 +2866,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -2860,7 +2875,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B28" s="9">
         <v>3</v>
@@ -2869,7 +2884,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B29" s="9">
         <v>4</v>
@@ -2878,19 +2893,19 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>64</v>
       </c>
@@ -2906,7 +2921,7 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>66</v>
       </c>
@@ -2955,7 +2970,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2964,7 +2979,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3023,39 +3038,39 @@
         <v>46</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -3073,21 +3088,21 @@
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -3194,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A520E6D7-FE24-4008-869E-260A951393F0}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,7 +3237,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3358,40 +3373,48 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B23" s="41" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3401,7 +3424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776B746-6FA7-4ED5-A591-83447F9AEDFB}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3428,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3477,7 +3500,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -3495,7 +3518,7 @@
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
@@ -3506,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3517,7 +3540,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="9">
         <v>49</v>
@@ -3525,7 +3548,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="9">
         <v>7</v>
@@ -3547,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
@@ -3555,13 +3578,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
@@ -3571,13 +3594,13 @@
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
@@ -3601,7 +3624,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3646,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,11 +3829,11 @@
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3898,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AEF32F-FECE-43E6-9362-CB985E75113A}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,353 +3952,353 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>207</v>
+      <c r="B3" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>208</v>
+      <c r="B4" s="36" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="41"/>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="41"/>
-    </row>
-    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="41"/>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="41"/>
-    </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="41"/>
-    </row>
-    <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="36"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="B17" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>210</v>
+      <c r="B18" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="41"/>
-    </row>
-    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="B21" s="36"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="36"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="36"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="36"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="36">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="36">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="36">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="36"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="36"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="36"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="36"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="36"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="36">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="B45" s="36">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="B46" s="36">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="B47" s="36"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="41"/>
-    </row>
-    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="B48" s="36"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B49" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="41"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="41"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="41"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="41"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="41">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="41">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="41">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="41">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="41"/>
-    </row>
-    <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="41"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="41"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="41"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="41"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="41">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="41">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="41">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="41"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="41"/>
-    </row>
-    <row r="49" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="43" t="s">
@@ -4283,33 +4306,33 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="45"/>
-    </row>
-    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="B51" s="44"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
+      <c r="B52" s="39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+      <c r="B53" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>220</v>
+      <c r="B54" s="36" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4348,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BBCCAB-E8C5-43E1-A5F4-88278D277EED}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,7 +4360,7 @@
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4349,66 +4372,66 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="7">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4416,14 +4439,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -4433,84 +4458,90 @@
     </row>
     <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B17" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="32"/>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="42"/>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="31"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="42"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4521,7 +4552,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,7 +4578,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -4608,26 +4639,26 @@
       <c r="B9" s="9"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4635,15 +4666,15 @@
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4688,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C3D241-0F2D-4616-8B05-AEDE0D6C835D}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4714,7 +4745,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -4723,7 +4754,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4731,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4739,7 +4770,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4799,7 +4830,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="14">
         <v>400</v>
@@ -4810,7 +4841,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="14">
         <v>344</v>
@@ -4821,7 +4852,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="14">
         <v>130</v>
@@ -4832,7 +4863,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="19">
         <v>220</v>
@@ -4846,7 +4877,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4854,7 +4885,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4862,7 +4893,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4870,7 +4901,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4878,7 +4909,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4886,7 +4917,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4894,7 +4925,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4902,7 +4933,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4910,7 +4941,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4918,7 +4949,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4926,7 +4957,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4934,7 +4965,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4958,7 +4989,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4966,7 +4997,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4974,7 +5005,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,7 +5013,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4990,7 +5021,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4998,7 +5029,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5006,7 +5037,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5014,7 +5045,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5022,7 +5053,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5030,7 +5061,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5038,7 +5069,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5046,7 +5077,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5054,7 +5085,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5062,7 +5093,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5070,7 +5101,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5084,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5112,124 +5143,124 @@
       <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="48"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="48"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
+      <c r="A59" s="48"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="14"/>
     </row>
@@ -5237,15 +5268,15 @@
       <c r="A70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>96</v>
+      <c r="B70" s="45" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="34"/>
+      <c r="B71" s="46"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
@@ -5263,13 +5294,13 @@
       <c r="A74" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="33"/>
+      <c r="B74" s="45"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="34"/>
+      <c r="B75" s="46"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
@@ -5313,8 +5344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691B2F58-1D22-447C-B44D-E3E4C98A49E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,7 +5371,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -5420,7 +5451,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5431,27 +5462,27 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5706,14 +5737,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9097DF4D-0B27-4A4E-8D17-49076FD86407}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="28fc6066-4239-4eca-8df4-da3a861e3e40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="852225de-0ab5-48e6-b5ae-21fe3d080e55"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
